--- a/greenplum/datawarehouse/QA/medicaid/dw_staging/outputs/dw-rx-counting.xlsx
+++ b/greenplum/datawarehouse/QA/medicaid/dw_staging/outputs/dw-rx-counting.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">Count of distinct PCN || NDC || FILL_DT combinations between SPC server and dw_staging</t>
   </si>
   <si>
-    <t xml:space="preserve">Run time: 2022-11-23 10:17:24</t>
+    <t xml:space="preserve">Run time: 2023-09-12 16:03:16</t>
   </si>
   <si>
     <t xml:space="preserve">fy</t>
@@ -62,277 +62,175 @@
     <t xml:space="preserve">2012</t>
   </si>
   <si>
-    <t xml:space="preserve">1171575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22812292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14303177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38287044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5615</t>
+    <t xml:space="preserve">1172978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22816147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14303534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38292659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">2013</t>
   </si>
   <si>
-    <t xml:space="preserve">2631650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6810061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31993003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41434714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1711</t>
+    <t xml:space="preserve">2631929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6811373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31993123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41436425</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
-    <t xml:space="preserve">2331959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6798781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31158818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40289558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657</t>
+    <t xml:space="preserve">2332624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6800348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31159243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40292215</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve">1633774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5423990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34366984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41424748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1573</t>
+    <t xml:space="preserve">1633809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5425403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34367109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41426321</t>
   </si>
   <si>
     <t xml:space="preserve">2016</t>
   </si>
   <si>
-    <t xml:space="preserve">1638856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4862142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33730664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40231662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1160</t>
+    <t xml:space="preserve">1638903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4863034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33730885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40232822</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
   </si>
   <si>
-    <t xml:space="preserve">1704937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2373547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35634306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39712790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">828</t>
+    <t xml:space="preserve">1704953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2374020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35634645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39713618</t>
   </si>
   <si>
     <t xml:space="preserve">2018</t>
   </si>
   <si>
-    <t xml:space="preserve">1879539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">975090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36924248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39778877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">977</t>
+    <t xml:space="preserve">1879542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">975232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36925080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39779854</t>
   </si>
   <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
-    <t xml:space="preserve">1720939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">862156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35309948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37893043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">985</t>
+    <t xml:space="preserve">1720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">862285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35310796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37894028</t>
   </si>
   <si>
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">1329893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">809026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30845690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32984609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
+    <t xml:space="preserve">1329906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30845820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32984812</t>
   </si>
   <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">807501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">611789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29979815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31399105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
+    <t xml:space="preserve">807511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">611888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29979866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31399265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">537033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35407298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36430756</t>
   </si>
   <si>
     <t xml:space="preserve">HTW</t>
   </si>
   <si>
-    <t xml:space="preserve">392865</t>
+    <t xml:space="preserve">392868</t>
   </si>
   <si>
     <t xml:space="preserve">Note: The missing RX claims are due to PCNs that do not exist in the enrollment tables</t>
@@ -781,18 +679,18 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2631929</v>
@@ -807,33 +705,33 @@
         <v>41436425</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" t="n">
         <v>2332624</v>
@@ -848,33 +746,33 @@
         <v>40292215</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
         <v>1633809</v>
@@ -889,33 +787,33 @@
         <v>41426321</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
         <v>1638903</v>
@@ -930,33 +828,33 @@
         <v>40232822</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
         <v>1704953</v>
@@ -971,33 +869,33 @@
         <v>39713618</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B11" t="n">
         <v>1879542</v>
@@ -1012,33 +910,33 @@
         <v>39779854</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B12" t="n">
         <v>1720947</v>
@@ -1053,33 +951,33 @@
         <v>37894028</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B13" t="n">
         <v>1329906</v>
@@ -1094,33 +992,33 @@
         <v>32984812</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
         <v>807511</v>
@@ -1135,259 +1033,317 @@
         <v>31399265</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+        <v>66</v>
+      </c>
+      <c r="B15" t="n">
+        <v>537033</v>
+      </c>
+      <c r="C15" t="n">
+        <v>486425</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35407298</v>
+      </c>
       <c r="E15" t="n">
+        <v>36430756</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
         <v>392868</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>107</v>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.00119753323517487</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.000168987842168599</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0000249594897693009</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.000146655354223742</v>
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>0.000106017137537286</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000192656130392958</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0000037508201402663</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0000412938773995158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>0.000285167963930755</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000230482493847059</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0000136397985315104</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0000659476085590217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0000214227916468251</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000260509329847585</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00000363721180770474</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0000379724699834022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0000286785416168352</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000183458237130878</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00000655190185405185</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0000288330121683762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.00000938451098193071</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000199279812028159</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00000951330439829528</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0000208497061022406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00000159613607379256</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000145627583094894</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0000225326186737777</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0000245607737996223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00000464862496578903</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000149624893870715</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0000240158948973813</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000025994217460973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00000977522251790182</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0000741632530969338</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00000421452721595789</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0000061543855196222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0000123838855927113</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000161820496936035</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00000170114458678281</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00000509568664457156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
+        <v>61</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
       <c r="E32" t="n">
-        <v>0.00000763621091214539</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
